--- a/SCGESP/temp/layout_edo_cuenta.xlsx
+++ b/SCGESP/temp/layout_edo_cuenta.xlsx
@@ -1,54 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hands\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AdminWeb\SCGESP\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC0B14E-492E-4BC3-80F0-4509E9DED01D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17790" windowHeight="6690"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t>Saldo:</t>
-  </si>
-  <si>
-    <t>$0.00. Status:Activa</t>
-  </si>
-  <si>
-    <t>Embosado:</t>
-  </si>
-  <si>
-    <t>Nombre:</t>
-  </si>
-  <si>
-    <t>Nomina:</t>
-  </si>
-  <si>
-    <t>Cliente:</t>
-  </si>
-  <si>
-    <t>Producto:</t>
-  </si>
-  <si>
-    <t>Tipo Empresa:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>TARJETA</t>
   </si>
@@ -77,13 +59,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,22 +214,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -269,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,14 +421,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF872136"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -579,55 +539,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -683,7 +594,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -691,62 +602,22 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="23" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -762,12 +633,12 @@
     <cellStyle name="40% - Énfasis4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1 2" xfId="41"/>
-    <cellStyle name="60% - Énfasis2 2" xfId="42"/>
-    <cellStyle name="60% - Énfasis3 2" xfId="43"/>
-    <cellStyle name="60% - Énfasis4 2" xfId="44"/>
-    <cellStyle name="60% - Énfasis5 2" xfId="45"/>
-    <cellStyle name="60% - Énfasis6 2" xfId="46"/>
+    <cellStyle name="60% - Énfasis1 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Énfasis2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Énfasis3 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Énfasis4 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Énfasis5 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Énfasis6 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="10" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="12" builtinId="23" customBuiltin="1"/>
@@ -782,13 +653,13 @@
     <cellStyle name="Énfasis6" xfId="32" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Millares 2" xfId="35"/>
-    <cellStyle name="Moneda 2" xfId="36"/>
-    <cellStyle name="Neutral 2" xfId="40"/>
+    <cellStyle name="Millares 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Moneda 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Neutral 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="37"/>
-    <cellStyle name="Normal 2 2" xfId="38"/>
-    <cellStyle name="Normal 3" xfId="39"/>
+    <cellStyle name="Normal 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Notas" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Salida" xfId="9" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="13" builtinId="11" customBuiltin="1"/>
@@ -1073,11 +944,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,127 +962,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="str">
-        <f>"Tarjeta "&amp; $A$9</f>
-        <v>Tarjeta 5117650402441001</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="1"/>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43179</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
+        <v>352</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3">
-        <v>43179</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4">
-        <v>352</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>